--- a/medicine/Psychotrope/Maredsous_(bière)/Maredsous_(bière).xlsx
+++ b/medicine/Psychotrope/Maredsous_(bière)/Maredsous_(bière).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Maredsous_(bi%C3%A8re)</t>
+          <t>Maredsous_(bière)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La bière Maredsous est une bière belge de fermentation haute brassée pour les moines de l'abbaye de Maredsous par la brasserie Duvel.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Maredsous_(bi%C3%A8re)</t>
+          <t>Maredsous_(bière)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Depuis son invention par un moine en 1947, la Maredsous n’a jamais été brassée à l’abbaye[2]. Cette bière n'a jamais été produite sur les lieux même de l'abbaye bénédictine de Maredsous, à Denée, en province de Namur[1].
-En 1949, la Maredsous 6 est créée et produite dans la brasserie du Faleau à Châtelineau[3]. À la fermeture de la brasserie du Faleau en 1960, la production déménage à la brasserie Caulier. Depuis 1963, l’abbaye a confié la production et la commercialisation à la brasserie Duvel[4]. Aujourd’hui[Quand ?], les quatre bières de la gamme Maredsous sont produites par la brasserie industrielle Duvel-Moortgat, basée à Breendonck en Flandre[2].
-En 2023, pour les 150 ans de L'Abbaye de Maredsous, une micro-brasserie sera ouverte sur place[5],[6].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Depuis son invention par un moine en 1947, la Maredsous n’a jamais été brassée à l’abbaye. Cette bière n'a jamais été produite sur les lieux même de l'abbaye bénédictine de Maredsous, à Denée, en province de Namur.
+En 1949, la Maredsous 6 est créée et produite dans la brasserie du Faleau à Châtelineau. À la fermeture de la brasserie du Faleau en 1960, la production déménage à la brasserie Caulier. Depuis 1963, l’abbaye a confié la production et la commercialisation à la brasserie Duvel. Aujourd’hui[Quand ?], les quatre bières de la gamme Maredsous sont produites par la brasserie industrielle Duvel-Moortgat, basée à Breendonck en Flandre.
+En 2023, pour les 150 ans de L'Abbaye de Maredsous, une micro-brasserie sera ouverte sur place,.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Maredsous_(bi%C3%A8re)</t>
+          <t>Maredsous_(bière)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,12 +558,14 @@
           <t>Variétés de bières</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Maredsous Blonde est une bière blonde et légère titrant 6 % d'alcool. Encore aujourd'hui, ce n'est plus la Maredsous blonde qui est consommée par les moines lors des repas[7].
-Maredsous Brune est une bière de couleur bordeaux foncé qui était à l'origine brassée exclusivement pour Noël. Elle titre 8 % d'alcool[8].
-Maredsous Triple est une bière blonde ambrée titrant 10 % d'alcool[9].
-Maredsous Extra est une bière blanche de 4,9% disponible exclusivement sur le site de l'abbaye[10].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Maredsous Blonde est une bière blonde et légère titrant 6 % d'alcool. Encore aujourd'hui, ce n'est plus la Maredsous blonde qui est consommée par les moines lors des repas.
+Maredsous Brune est une bière de couleur bordeaux foncé qui était à l'origine brassée exclusivement pour Noël. Elle titre 8 % d'alcool.
+Maredsous Triple est une bière blonde ambrée titrant 10 % d'alcool.
+Maredsous Extra est une bière blanche de 4,9% disponible exclusivement sur le site de l'abbaye.</t>
         </is>
       </c>
     </row>
